--- a/archivos/HISTORIAL_PROCESOS.xlsx
+++ b/archivos/HISTORIAL_PROCESOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2050"/>
+  <dimension ref="A1:E2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42917,6 +42917,8932 @@
         </is>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>4049720</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>PUÑOS BMX</t>
+        </is>
+      </c>
+      <c r="E2051" t="inlineStr"/>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>1380276</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>MAGNESIO</t>
+        </is>
+      </c>
+      <c r="E2052" t="inlineStr"/>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>1853391</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>CINTA ANTIAMPOLLAS</t>
+        </is>
+      </c>
+      <c r="E2053" t="inlineStr"/>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>4813859</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>BOTELLA PARA BEBER</t>
+        </is>
+      </c>
+      <c r="E2054" t="inlineStr"/>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>5157782</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>MINI COCTELERA CON FILTRO</t>
+        </is>
+      </c>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>4394446</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>BOTELLA PARA BEBER</t>
+        </is>
+      </c>
+      <c r="E2056" t="inlineStr"/>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>2730761</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>VASO PLEGABLE DE PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2057" t="inlineStr"/>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>4521015</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>IMPERMEABLE</t>
+        </is>
+      </c>
+      <c r="E2058" t="inlineStr"/>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>5254083</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>GUANTE PARA PORTERO INFANTIL</t>
+        </is>
+      </c>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>4813863</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>BOTELLA PARA BEBER</t>
+        </is>
+      </c>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>2391507</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>DESMONTADOR Y REARMADOR DE NEUMATICOS DE BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>2524025</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>MAXI COMPARTIMIENTO DE ALMACENAMIENTO</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>4271804</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>SOPORTE DE PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>4833904</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>BRAZALETE VISIBILIDAD AMARILLO</t>
+        </is>
+      </c>
+      <c r="E2064" t="inlineStr"/>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>4966073</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>PORTA BIDON</t>
+        </is>
+      </c>
+      <c r="E2065" t="inlineStr"/>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>2781180</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>NEUMATICO PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2066" t="inlineStr"/>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>4216721</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>GOMA DE ZAPATAS DE FRENO PARA BICICLETA DE CARRERA</t>
+        </is>
+      </c>
+      <c r="E2067" t="inlineStr"/>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>4166448</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>ESTUCHE PARA ANTEOJOS</t>
+        </is>
+      </c>
+      <c r="E2068" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>4422383</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>ESTUCHE RIGIDO PARA GAFAS DE SOL</t>
+        </is>
+      </c>
+      <c r="E2069" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>2538918</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>MOCHILA DE MATERIA TEXTIL</t>
+        </is>
+      </c>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>2576031</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>BOLSAS PARA BICILETA</t>
+        </is>
+      </c>
+      <c r="E2071" t="inlineStr"/>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>2956595</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>BOLSA PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2072" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>2985484</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>BOLSA PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>4073895</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>BOLSA PARA TRASPORTE DE BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>4811458</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>PARTES PARA BICICLETAS (CESTA PARA BICICLETA)</t>
+        </is>
+      </c>
+      <c r="E2075" t="inlineStr"/>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>5395712</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>MOCHILA   TEXTIL</t>
+        </is>
+      </c>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1650967</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>GUANTES DE PIEL 1 PAR</t>
+        </is>
+      </c>
+      <c r="E2077" t="inlineStr"/>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>2712535</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>CAMISETA CICLISTA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2078" t="inlineStr"/>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>4531832</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>FORRO POLAR PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2079" t="inlineStr"/>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>4531833</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>FORRO POLAR PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2080" t="inlineStr"/>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>4567159</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2081" t="inlineStr"/>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>4567162</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr"/>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>4567163</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2083" t="inlineStr"/>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>4567164</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2084" t="inlineStr"/>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>5015077</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2085" t="inlineStr"/>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>5015078</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2086" t="inlineStr"/>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>5015079</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2087" t="inlineStr"/>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>5015080</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>FALDA BALET PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2088" t="inlineStr"/>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>2600302</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑOS, DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>2600304</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑOS, DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2090" t="inlineStr"/>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>2600305</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑOS, DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>2602587</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>PANTALON PARA NIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2092" t="inlineStr"/>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>2602588</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>PANTALON PARA NIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2093" t="inlineStr"/>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>2879880</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA ÑIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2094" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>2879954</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA ÑIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2095" t="inlineStr"/>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>2879955</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA NIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2096" t="inlineStr"/>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>2879960</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA ÑIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2097" t="inlineStr"/>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>2919465</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>PANTALON PARA MUJER DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2098" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>4047292</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA MUJER DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2099" t="inlineStr"/>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>4105733</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>PANTALON PARA NIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2100" t="inlineStr"/>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>4302948</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2101" t="inlineStr"/>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>5350676</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2102" t="inlineStr"/>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>5177910</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2103" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>5177911</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2104" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>2617413</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>PANTALON PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2105" t="inlineStr"/>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>2735543</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2106" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>2983073</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>PANTALON PARA NIIÑOS DE FIRBAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2107" t="inlineStr"/>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>2983074</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>PANTALON PARA NIIÑOS DE FIRBAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2108" t="inlineStr"/>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>2983365</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>PANTALON PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2109" t="inlineStr"/>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>4031483</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2110" t="inlineStr"/>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>4031484</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2111" t="inlineStr"/>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>4044135</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2112" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>4215506</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2113" t="inlineStr"/>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>4287461</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>PANTALON  HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2114" t="inlineStr"/>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>4288161</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2115" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>4364757</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2116" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>4521483</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2117" t="inlineStr"/>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>4573259</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2118" t="inlineStr"/>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>4712466</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>PANTALON PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2119" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>4857569</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑA DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2120" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>4968181</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2121" t="inlineStr"/>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>5316910</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2122" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>5324947</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>PANTALON PARA UNISEX DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2123" t="inlineStr"/>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>5324948</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>PANTALON PARA UNISEX DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2124" t="inlineStr"/>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>5324950</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>PANTALON PARA UNISEX DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2125" t="inlineStr"/>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>5406445</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2126" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>5406449</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>5511942</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2128" t="inlineStr"/>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>5511943</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2129" t="inlineStr"/>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>2780008</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>BOXER PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2130" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>2600203</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2131" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>2600207</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>2602580</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>CAMISETA MANGA LARGAPARA NIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2133" t="inlineStr"/>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>2602581</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>CAMISETA MANGA LARGAPARA NIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2134" t="inlineStr"/>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>2602583</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>CAMISETA MANGA LARGAPARA NIÑA DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr"/>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>2695727</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2136" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>2880413</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2137" t="inlineStr"/>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>4469476</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr"/>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>4527347</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE ALGODN</t>
+        </is>
+      </c>
+      <c r="E2139" t="inlineStr"/>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>4602209</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑOS DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2140" t="inlineStr"/>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>4602214</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑOS DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2141" t="inlineStr"/>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>4702080</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>CAMISETA  PARA MUJER DE ALGODON</t>
+        </is>
+      </c>
+      <c r="E2142" t="inlineStr"/>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>4738281</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE MANGA LARGA  DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr"/>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>4751370</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO UNISEX DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2144" t="inlineStr"/>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>4751374</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO UNISEX DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2145" t="inlineStr"/>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>5116849</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2146" t="inlineStr"/>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>5436305</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>5436307</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2148" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>5009624</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr"/>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>5009644</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2150" t="inlineStr"/>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1779029</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2151" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>2696840</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr"/>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>4127873</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2153" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>4333489</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2154" t="inlineStr"/>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>4333492</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr"/>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>4333496</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE FIBRA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E2156" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>4333497</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE FIBRA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E2157" t="inlineStr"/>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>4425706</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2158" t="inlineStr"/>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>4690994</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2159" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>4744699</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2160" t="inlineStr"/>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>4925259</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2161" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>5010382</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE FIRBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>5055653</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>CAMISETA MANGA CORTA PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2163" t="inlineStr"/>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>5104623</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2164" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>5304384</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>CAMISETA DE LANA PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2165" t="inlineStr"/>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>5319238</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE FIRBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2166" t="inlineStr"/>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>5326848</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2167" t="inlineStr"/>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>5513950</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>CAMISETASIN MANGAS PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2168" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>5513951</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>CAMISETASIN MANGAS PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2169" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>5513952</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>CAMISETASIN MANGAS PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2170" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>5513953</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>CAMISETASIN MANGAS PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2171" t="inlineStr"/>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>4781713</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>CHAQUETA IMPERMEABLE DE FIBRAS SINTETICAS PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2172" t="inlineStr"/>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>5165690</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HONBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2173" t="inlineStr"/>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>5165691</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HONBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2174" t="inlineStr"/>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>5404336</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>5348559</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2176" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>4519572</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>CONJUNTO PARA ENTRENAMIENTO Ó DEPORTE PARA NIÑOS  DE FIBRAS SINTETICAS (CHANDALES) 2 PIEZAS</t>
+        </is>
+      </c>
+      <c r="E2177" t="inlineStr"/>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>5166125</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>SUDADERA ALGODON PARA MUJER</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>5166127</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>SUDADERA ALGODON PARA MUJER</t>
+        </is>
+      </c>
+      <c r="E2179" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>5166129</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>SUDADERA ALGODON PARA MUJER</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>5166130</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>SUDADERA ALGODON PARA MUJER</t>
+        </is>
+      </c>
+      <c r="E2181" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>5166131</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>SUDADERA ALGODON PARA MUJER</t>
+        </is>
+      </c>
+      <c r="E2182" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>4152495</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>SUDADERA PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2183" t="inlineStr"/>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>4521314</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>CHALECO DE HIDRATACION</t>
+        </is>
+      </c>
+      <c r="E2184" t="inlineStr"/>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>4527218</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>JERSEY PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2185" t="inlineStr"/>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>4527224</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>SUERTER PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2186" t="inlineStr"/>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>4547993</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER PRACTIA DE SURF DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2187" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>4547995</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER PRACTIA DE SURF DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2188" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>4714381</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>SUDADERA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2189" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>4732255</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>SUDADERA PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2190" t="inlineStr"/>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>4732256</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>SUDADERA PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2191" t="inlineStr"/>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>4798264</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>WRAP CRUZADA DE DANZA, PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2192" t="inlineStr"/>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>4866362</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE ALGODON</t>
+        </is>
+      </c>
+      <c r="E2193" t="inlineStr"/>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>4866363</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE ALGODON</t>
+        </is>
+      </c>
+      <c r="E2194" t="inlineStr"/>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>4866367</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE ALGODON</t>
+        </is>
+      </c>
+      <c r="E2195" t="inlineStr"/>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>4994846</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>CHALECO DE HIDRATACION</t>
+        </is>
+      </c>
+      <c r="E2196" t="inlineStr"/>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>5004368</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>MAILLOT MANGA CORTA PARA MUJER PARA LA PRACTICA CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2197" t="inlineStr"/>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>5004372</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>MAILLOT MANGA CORTA PARA MUJER PARA LA PRACTICA CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2198" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>5058687</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>SUDADERA PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2199" t="inlineStr"/>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>5103239</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>PANTALONES PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2200" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>5256267</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>MAILLOT MANGA CORTA PARA MUJER PARA LA PRACTICA CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2201" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>5393921</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>CALZONCILLOS INTERIORES DE CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2202" t="inlineStr"/>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>5393922</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>CALZONCILLOS INTERIORES DE CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2203" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>5400049</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>5400059</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2205" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>5416104</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA NIÑA 1 PIEZAS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>5417508</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA MUJER DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2207" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>2880515</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>CAMISETAS PARA NIÑOS O NIÑAS DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2208" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>2958482</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>CONJUNTO PARA BEBE DE FIBRAS SINTETICAS 2 piezas</t>
+        </is>
+      </c>
+      <c r="E2209" t="inlineStr"/>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>4561607</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>CONJUNTO PARA ENTRENAMIENTO PARA DEPORTE PARA NIÑA DE FIBRAS SINTETICAS (CHANDALES) 2 PIEZAS</t>
+        </is>
+      </c>
+      <c r="E2210" t="inlineStr"/>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>4561611</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>CONJUNTO PARA ENTRENAMIENTO PARA DEPORTE PARA NIÑA DE FIBRAS SINTETICAS (CHANDALES) 2 PIEZAS</t>
+        </is>
+      </c>
+      <c r="E2211" t="inlineStr"/>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>4112803</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2212" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>4228801</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2213" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>5057381</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2214" t="inlineStr"/>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>5416931</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2215" t="inlineStr"/>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>2916394</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA NIÑA FIBRAS SINTETICA 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2216" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>2922432</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA NIÑA DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2217" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>2987529</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA MUJER DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2218" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>4027244</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA MUJER PARTE INFERIOR DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2219" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>4235696</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA MUJER DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2220" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>4323878</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2221" t="inlineStr"/>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>4523621</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA MUJER DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2222" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>4789535</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA BEBE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2223" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>4789536</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA BEBE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2224" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>5056910</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2225" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>5063922</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA NIÑA DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2226" t="inlineStr"/>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>5255461</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA MUJER PARTE INFERIOR DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2227" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>5255821</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA MUJER DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>5255931</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA MUJER DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2229" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>5416033</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2230" t="inlineStr"/>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>5417335</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>TRAJE DE BAÑO PARA MUJER PARTE SUPERIOR DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2231" t="inlineStr"/>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>5417434</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA MUJER DE FIBRAS SINTETICAS 1 PIEZA</t>
+        </is>
+      </c>
+      <c r="E2232" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>2665036</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>CHUBASQUERO BICI CARRETERA MANGA LARGA PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2233" t="inlineStr"/>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>2665037</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>CHUBASQUERO BICI CARRETERA MANGA LARGA PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2234" t="inlineStr"/>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>4245243</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>IMPERMEABLE DE FIBRAS SINTETICAS PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2235" t="inlineStr"/>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>5325788</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>MAILLOT MANGA LARGA HOMBRE PARA LA PRACTICA CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2236" t="inlineStr"/>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>5325790</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>MAILLOT MANGA LARGA HOMBRE PARA LA PRACTICA CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2237" t="inlineStr"/>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>2940685</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>CAMISETA CON CAPUCHA PARA MUJER, DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2238" t="inlineStr"/>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>2940689</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>CAMISETA CON CAPUCHA PARA MUJER, DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2239" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>2753002</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>MAILLOT PARA DANZA CLASICA PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2240" t="inlineStr"/>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>4377757</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>MAILLOT SIN MANGAS GIMNASIA ARTISITICA PARA NIÑA</t>
+        </is>
+      </c>
+      <c r="E2241" t="inlineStr"/>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>4532852</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>TRAJE DE BALLET PARA NIÑA  DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2242" t="inlineStr"/>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>4828761</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER ENTRENAMIENTO CROP TOP DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2243" t="inlineStr"/>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>4828762</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER ENTRENAMIENTO CROP TOP DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2244" t="inlineStr"/>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>4828763</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER ENTRENAMIENTO CROP TOP DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2245" t="inlineStr"/>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>4875556</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>MAILLOT SIN MANGAS GIMNASIA ARTISITICA PARA NIÑA</t>
+        </is>
+      </c>
+      <c r="E2246" t="inlineStr"/>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>4875557</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>MAILLOT SIN MANGAS GIMNASIA ARTISITICA PARA NIÑA</t>
+        </is>
+      </c>
+      <c r="E2247" t="inlineStr"/>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>4883184</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>MALLA CON TIRANTES PARA CICILISTA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2248" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>4883186</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>MALLA CON TIRANTES PARA CICILISTA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2249" t="inlineStr"/>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>4945504</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>CAMISETA DE YOGA PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2250" t="inlineStr"/>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>4945505</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>CAMISETA DE YOGA PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2251" t="inlineStr"/>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>5000336</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER SIN MANGAS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2252" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>5006445</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>SUDADERA PARA DAMA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2253" t="inlineStr"/>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>5264059</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>MAILLOT PARA HOMBRE CICLISTA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2254" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>5264068</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>MAILLOT PARA HOMBRE CICLISTA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2255" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>5356608</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>SUJETADOR DEPORTIVO PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2256" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>4172258</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>MEDIAS PARA DANZA  DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2257" t="inlineStr"/>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>4172317</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>MEDIAS PARA DANZA  DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2258" t="inlineStr"/>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>4374598</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>MEDIAS PARA DANZA  DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2259" t="inlineStr"/>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>4819784</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>CALCETINES ALGODON PAQUETE CON 3 PARES</t>
+        </is>
+      </c>
+      <c r="E2260" t="inlineStr"/>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>2505145</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2261" t="inlineStr"/>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>2505146</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2262" t="inlineStr"/>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>4228783</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS PAQUETE CON 1 PAR</t>
+        </is>
+      </c>
+      <c r="E2263" t="inlineStr"/>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>4237779</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS 1 PAR</t>
+        </is>
+      </c>
+      <c r="E2264" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>4261780</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>CALCETIN DE FIBRAS SINTETCIAS</t>
+        </is>
+      </c>
+      <c r="E2265" t="inlineStr"/>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>4336815</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS 2 PAR</t>
+        </is>
+      </c>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>4898521</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS PAQUETE CON 2 PAR</t>
+        </is>
+      </c>
+      <c r="E2267" t="inlineStr"/>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>4899369</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2268" t="inlineStr"/>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>4899370</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2269" t="inlineStr"/>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>4899371</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2270" t="inlineStr"/>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>4899372</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2271" t="inlineStr"/>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>4899373</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2272" t="inlineStr"/>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>4964944</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS PAQUETE CON 2 PAR</t>
+        </is>
+      </c>
+      <c r="E2273" t="inlineStr"/>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>4988838</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS 1 PARES</t>
+        </is>
+      </c>
+      <c r="E2274" t="inlineStr"/>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>5281058</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>CALCETIN DE COMPRESION PARA CORRER</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr"/>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>5379533</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>CALCETIN DEPORTIVO</t>
+        </is>
+      </c>
+      <c r="E2276" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>2975249</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>MITONES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2277" t="inlineStr"/>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>4126913</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>GUANTES DE FIBRAS SINTETICAS 1 PAR</t>
+        </is>
+      </c>
+      <c r="E2278" t="inlineStr"/>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>4126914</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>MITONES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr"/>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>4229063</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>MITONES DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2280" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>4438925</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>GUANTES DE CICLISMO TRASNPIRABLES</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr"/>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>4438929</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>GUANTES DE CICLISMO</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>4438930</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>GUANTES DE CICLISMO</t>
+        </is>
+      </c>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>4711239</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>GUANTES DE KICKBOXING ADULTO</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr"/>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>5275193</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>GUANTES DE CICLISMO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2285" t="inlineStr"/>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>5275237</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>GUANTES DE CICLISMO</t>
+        </is>
+      </c>
+      <c r="E2286" t="inlineStr"/>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>2665776</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>MANGUITO PARA CICLISMO (CALENTADORES PARA BRAZOS 1 PAR)</t>
+        </is>
+      </c>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>2669490</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>MUÑEQUERAS</t>
+        </is>
+      </c>
+      <c r="E2288" t="inlineStr"/>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>4465133</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>PROTECTOR DE PIE</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr"/>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>4465135</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>PROTECTOR DE PIE</t>
+        </is>
+      </c>
+      <c r="E2290" t="inlineStr"/>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>2900868</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>CHAQUETA ACOLCHADA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2291" t="inlineStr"/>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>5205422</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>PANTALON DE FIBRAS SINTETICAS PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2292" t="inlineStr"/>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>5205424</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>PANTALON DE FIBRAS SINTETICAS PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2293" t="inlineStr"/>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>2777712</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>ROMPEVIENTO IMPERMEABLE PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2294" t="inlineStr"/>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>2777713</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>ROMPEVIENTO IMPERMEABLE PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2295" t="inlineStr"/>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>4167883</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>CHAMARRA IMPERMEABLE PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2296" t="inlineStr"/>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>4744755</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>CHAMARRA TIPO IMPERMEBLE PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2297" t="inlineStr"/>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>4744756</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>CHAMARRA TIPO IMPERMEBLE PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>5134048</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>CHAMARRA TIPO IMPERMEBLE PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr"/>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>4881510</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>CHAMARRA IMPERMEABLE PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2300" t="inlineStr"/>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>4881514</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>CHAMARRA IMPERMEABLE PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2301" t="inlineStr"/>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>5399485</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑOS DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2302" t="inlineStr"/>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>5399486</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑOS DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2303" t="inlineStr"/>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>2945020</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA NIÑO DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2304" t="inlineStr"/>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>4010643</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>SHORTS PARA HOMBRE DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2305" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>4010644</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>SHORTS PARA HOMBRE DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2306" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>4193723</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>4744908</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑO DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2308" t="inlineStr"/>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>4744909</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑO DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>4744912</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑO DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2310" t="inlineStr"/>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>5086596</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>PANTALON PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>5189939</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>PANTALON PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>5189942</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>PANTALON PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>5447630</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>SHORT HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2314" t="inlineStr"/>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>5447637</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>SHORT HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2315" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>4698277</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2316" t="inlineStr"/>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>5378322</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>FALDA PANTALON PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2317" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>4996805</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2318" t="inlineStr"/>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>4996868</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>SHORT DE FIBRAS SINTETICAS, PARA NIÑOS</t>
+        </is>
+      </c>
+      <c r="E2319" t="inlineStr"/>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>5356426</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>SHORT DE FIBRAS SINTETICAS, PARA NIÑOS</t>
+        </is>
+      </c>
+      <c r="E2320" t="inlineStr"/>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>2651996</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>PANTALÓN PARA NIÑAS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2321" t="inlineStr"/>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>2956677</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>PANTALON PARA NIÑO DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>4246041</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>SHORT DE MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2323" t="inlineStr"/>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>4246042</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>SHORT DE MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2324" t="inlineStr"/>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>4246047</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>SHORT DE MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2325" t="inlineStr"/>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>4313950</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>SHORT HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2326" t="inlineStr"/>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>4904631</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>SHORT HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2327" t="inlineStr"/>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>4925463</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>SHORT PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2328" t="inlineStr"/>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>4986390</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>5350442</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>5350443</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>SHORT PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>5426105</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>BAÑADOR PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>2555316</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>CAMISA PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2333" t="inlineStr"/>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>2555312</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>CAMISA PARA DAMA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2334" t="inlineStr"/>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>2555313</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>CAMISA PARA DAMA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2335" t="inlineStr"/>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>2902991</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>PONCHO DE SURF PARA NIÑO DE ALGODON</t>
+        </is>
+      </c>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>4463655</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>PONCHO DE BAÑO PARA NIÑO DE ALGODON</t>
+        </is>
+      </c>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>4848148</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>PONCHO DE BAÑO PARA MUJER DE ALGODÓN</t>
+        </is>
+      </c>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>5274714</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>ALBORNOCES DE BAÑO UNISEX PARA NIÑOS DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2339" t="inlineStr"/>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>5147886</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑA DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2340" t="inlineStr"/>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>5147887</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑA DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2341" t="inlineStr"/>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>5147891</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑA DE POLIESTER</t>
+        </is>
+      </c>
+      <c r="E2342" t="inlineStr"/>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>4448195</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>CHAQUETA IMPERMEABLE DE FIBRAS SINTETICAS PARA HOMBRE</t>
+        </is>
+      </c>
+      <c r="E2343" t="inlineStr"/>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>2539997</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>PANTALON PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2344" t="inlineStr"/>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>2540002</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>PANTALON PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>4561954</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>PONCHO IMPERMEABLE PARA MUJER</t>
+        </is>
+      </c>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>4592154</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>CHALECO ALTA VISIBILIDAD AMARILLO</t>
+        </is>
+      </c>
+      <c r="E2347" t="inlineStr"/>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>4592155</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>CHALECO ALTA VISIBILIDAD AMARILLO</t>
+        </is>
+      </c>
+      <c r="E2348" t="inlineStr"/>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>4592156</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>CHALECO ALTA VISIBILIDAD AMARILLO</t>
+        </is>
+      </c>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>2756840</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>SUJETADOR DEPORTIVO PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>4341735</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>SUJETADOR DEPORTIVO PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2351" t="inlineStr"/>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>4341738</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>SUJETADOR DEPORTIVO PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2352" t="inlineStr"/>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>4672307</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>CAMISETA PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>4842404</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>BRASIER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2354" t="inlineStr"/>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>5029010</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>SUJETADOR DEPORTIVO PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2355" t="inlineStr"/>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>5029013</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>SUJETADOR DEPORTIVO PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2356" t="inlineStr"/>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>5135249</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>SUJETADOR PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2357" t="inlineStr"/>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>5205811</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>SUJETADOR DEPORTIVO PARA MUJER DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2358" t="inlineStr"/>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>5516005</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>CINTURON DE SOPORTE LUMBAR NIVEL 4</t>
+        </is>
+      </c>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>2603814</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2360" t="inlineStr"/>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>2603815</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2361" t="inlineStr"/>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>2603818</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>SHORT PARA NIÑA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2362" t="inlineStr"/>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>5001559</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>CINTURON</t>
+        </is>
+      </c>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>4908566</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>TOALLA DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2364" t="inlineStr"/>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>5098889</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>TOALLA DE MICROFIBRA</t>
+        </is>
+      </c>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>5445459</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>TOALLA DE BAÑO DE MICROFIBRAS</t>
+        </is>
+      </c>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>2963895</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>TIENDAS DE CAMPAÑA</t>
+        </is>
+      </c>
+      <c r="E2367" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>1318238</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>BOLSA FITNESS</t>
+        </is>
+      </c>
+      <c r="E2368" t="inlineStr"/>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>2562082</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>BOLSA REFRIGERADORA IMPERMEABLE</t>
+        </is>
+      </c>
+      <c r="E2369" t="inlineStr"/>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>2780422</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>FUNDA IMPERMEABLE PARA MOCHILA</t>
+        </is>
+      </c>
+      <c r="E2370" t="inlineStr"/>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>5514222</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>CODERA CON CORREA DERECHA O IZQUIERDA</t>
+        </is>
+      </c>
+      <c r="E2371" t="inlineStr"/>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>5514840</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>SOPORTE DE RODILLA DERECHA/IZQUIERDA</t>
+        </is>
+      </c>
+      <c r="E2372" t="inlineStr"/>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>834047</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>CORDONES PARA CALZADO</t>
+        </is>
+      </c>
+      <c r="E2373" t="inlineStr"/>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>4143905</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>CALZADO DE DEPORTE PARA HOMBRES O JOVENES, CORTE TEXTIL Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2374" t="inlineStr"/>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>4271177</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>CALZADO DE DEPORTE PARA HOMBRES O JOVENES, CORTE TEXTIL Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2375" t="inlineStr"/>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>5134088</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>CHAMARRA  PARA HOMBRE DE FIBRAS SINTETICAS</t>
+        </is>
+      </c>
+      <c r="E2376" t="inlineStr"/>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>4875162</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>CALZADO PARA MUJERES O JOVENCITAS, CORTE DE CUERO NATURAL Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2377" t="inlineStr"/>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>4875165</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>CALZADO PARA MUJERES O JOVENCITAS, CORTE DE CUERO NATURAL Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2378" t="inlineStr"/>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>5374432</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRES O JOVENES, CORTE TEXTIL Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2379" t="inlineStr"/>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>5407032</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>CALZADO PARA MUJERES O JOVENES, CORTE TEXTIL Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2380" t="inlineStr"/>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>2307024</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>CALZADO PARA NIÑOS, NIÑAS O INFANTES, CORTE Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2381" t="inlineStr"/>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>2307026</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRES O JOVENES, CORTE Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2382" t="inlineStr"/>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>2307027</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRES O JOVENES, CORTE Y SUELA DE CAUCHO O PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2383" t="inlineStr"/>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>4570095</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>PLANTILLAS</t>
+        </is>
+      </c>
+      <c r="E2384" t="inlineStr"/>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>2956709</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>GORRA PARA CICILISTA</t>
+        </is>
+      </c>
+      <c r="E2385" t="inlineStr"/>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>5447379</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>GORRO DE NATACION</t>
+        </is>
+      </c>
+      <c r="E2386" t="inlineStr"/>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>2385963</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>CASCO DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="E2387" t="inlineStr"/>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1302393</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>TORNILLO PORTABIDON</t>
+        </is>
+      </c>
+      <c r="E2388" t="inlineStr"/>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>4266341</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>SARTEN DE ACERO INOXIDABLE</t>
+        </is>
+      </c>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>2480082</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>HERVIDOR CAPING DE ACERO INOXIDABLE</t>
+        </is>
+      </c>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>5065733</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>BOTELLA DE ACERO INOXIDABLE</t>
+        </is>
+      </c>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>932842</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>SOPORTES DE ACERO</t>
+        </is>
+      </c>
+      <c r="E2392" t="inlineStr"/>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>4037787</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>SOPORTE TITULAR DE TELEFONO PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>2218120</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>LOS DEMAS JUEGO DE DESTORNILLADORES</t>
+        </is>
+      </c>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>4818333</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>CANDADO PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2395" t="inlineStr"/>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>2538461</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>TIMBRE PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2396" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>2709246</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>INFLADOR CO2</t>
+        </is>
+      </c>
+      <c r="E2397" t="inlineStr"/>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>2247304</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>BICICLETA PARA NIÑO</t>
+        </is>
+      </c>
+      <c r="E2398" t="inlineStr"/>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>2430977</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>4166450</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>BICICLETA MONTAÑA</t>
+        </is>
+      </c>
+      <c r="E2400" t="inlineStr"/>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>4166451</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>BICICLETA MONTAÑA</t>
+        </is>
+      </c>
+      <c r="E2401" t="inlineStr"/>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>4166453</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>BICICLETA MONTAÑA</t>
+        </is>
+      </c>
+      <c r="E2402" t="inlineStr"/>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>4482595</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>BICICLETAS PARA NIÑOS</t>
+        </is>
+      </c>
+      <c r="E2403" t="inlineStr"/>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>2908445</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>PASTILLA DE FRENO DE DISCO</t>
+        </is>
+      </c>
+      <c r="E2404" t="inlineStr"/>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>2731894</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>SILLINES (ASIENTOS PARA BICICLETAS)</t>
+        </is>
+      </c>
+      <c r="E2405" t="inlineStr"/>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>1335341</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>CALAS PARA PEDAL</t>
+        </is>
+      </c>
+      <c r="E2406" t="inlineStr"/>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>5157725</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>PIE PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2407" t="inlineStr"/>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1791659</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>PARTE PARA BICICLETA (PUÑOS)</t>
+        </is>
+      </c>
+      <c r="E2408" t="inlineStr"/>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>1793443</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>SEGURO PARA CADENA DE BICICLETA (ACOPLADORES RAPIDOS PARA CADENAS)</t>
+        </is>
+      </c>
+      <c r="E2409" t="inlineStr"/>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>2004039</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>PARTE PARA BICICLETA (PUÑOS)</t>
+        </is>
+      </c>
+      <c r="E2410" t="inlineStr"/>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>4698502</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>PEDALES PARA BICICLETA</t>
+        </is>
+      </c>
+      <c r="E2411" t="inlineStr"/>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>572311</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>REFLECTORES PARA BICICLETAS</t>
+        </is>
+      </c>
+      <c r="E2412" t="inlineStr"/>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>577324</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>PARTES PARA BICICLETAS (SALPICADERA)</t>
+        </is>
+      </c>
+      <c r="E2413" t="inlineStr"/>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>849332</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>SOPORTE PARA TRASLADAR BICICLETAS</t>
+        </is>
+      </c>
+      <c r="E2414" t="inlineStr"/>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>4147047</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>GAFAS DE SOL</t>
+        </is>
+      </c>
+      <c r="E2415" t="inlineStr"/>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>4227229</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>GAFAS DE SOL</t>
+        </is>
+      </c>
+      <c r="E2416" t="inlineStr"/>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>4964139</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>GAFAS DE SOL</t>
+        </is>
+      </c>
+      <c r="E2417" t="inlineStr"/>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>5503699</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>GAFAS DE SOL</t>
+        </is>
+      </c>
+      <c r="E2418" t="inlineStr"/>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>5503708</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>GAFAS DE SOL</t>
+        </is>
+      </c>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>5506686</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>GAFAS DE SOL</t>
+        </is>
+      </c>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1178790</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>GAFAS PROTECTORAS</t>
+        </is>
+      </c>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>4005634</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>GOGGLES PARA NATACION</t>
+        </is>
+      </c>
+      <c r="E2422" t="inlineStr"/>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>4460155</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>GOOGLES</t>
+        </is>
+      </c>
+      <c r="E2423" t="inlineStr"/>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>4460158</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>GAFAS DE NATACION</t>
+        </is>
+      </c>
+      <c r="E2424" t="inlineStr"/>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>4518513</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>SACOS (BOLSAS) DE DORMIR</t>
+        </is>
+      </c>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>4308180</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>JUEGO DE BUSEO ACUATICO TIBALL</t>
+        </is>
+      </c>
+      <c r="E2426" t="inlineStr"/>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>5035925</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>PORTA MUÑECA (ASIENTO PARA MUÑECA DE PLASTICO</t>
+        </is>
+      </c>
+      <c r="E2427" t="inlineStr"/>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>5094846</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>COMETA INFANTIL</t>
+        </is>
+      </c>
+      <c r="E2428" t="inlineStr"/>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>2544421</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>ARTICULOS PARA LA PRACTICA ACUATICA (QUILLA)</t>
+        </is>
+      </c>
+      <c r="E2429" t="inlineStr"/>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>5466785</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>ALETAS DE BUCEO</t>
+        </is>
+      </c>
+      <c r="E2430" t="inlineStr"/>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>2777077</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>PALO DE GOLF</t>
+        </is>
+      </c>
+      <c r="E2431" t="inlineStr"/>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>4108219</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>RAQUETA DE PADEL</t>
+        </is>
+      </c>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>4045454</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>PELOTA DE TENIS CAJA CON 3 PIEZAS</t>
+        </is>
+      </c>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>5144175</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>BALON DE FUTBOL</t>
+        </is>
+      </c>
+      <c r="E2434" t="inlineStr"/>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>4004221</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>PATINES EN LINEA</t>
+        </is>
+      </c>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1746752</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>ARTICULOS PARA LA CULTURA FISICA (BARRA DE MUSCULACIÓN)</t>
+        </is>
+      </c>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>4771991</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>CHALECO DE CULTURISMO CON PESO AJUSTABLE DE 6 A 10 KG (CHALECO LASTRADO)</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>4934724</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>ARTICULOS PARA LA CULTURA FISICA (DISCO PESAS DE 2 KG )</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>5350399</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>ARTICULOS PARA LA CULTURA FISICA (TABLA DE EQUILIBRIO DE MADERA PARA FITNESS)</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>712781</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>MARCUERNAS 2x 0.5 kg</t>
+        </is>
+      </c>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>5514160</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>TOBILLERA DE SOPORTE DERECHA/IZQUIERDA  NIVEL 2</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr"/>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>5514205</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>CODERA DE SOPORTE DERECHA/IZQUIERDA SIN COSTURA</t>
+        </is>
+      </c>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>4487196</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>CANASTA DE BASQUETBOL</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr"/>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>4529279</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>RODILLERAS PROTECTORAS  PARA NIÑOS Y ADULTOS DANZA</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr"/>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>4529280</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>RODILLERAS PROTECTORAS  PARA NIÑOS Y ADULTOS DANZA</t>
+        </is>
+      </c>
+      <c r="E2445" t="inlineStr"/>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>4964192</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>ESPINILLERAS FULL CONTACT Y BOXEO FRANCES</t>
+        </is>
+      </c>
+      <c r="E2446" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>4174576</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>JUEGO DE CEPILLOS PARA LIMPIEZA DE BICICLETAS</t>
+        </is>
+      </c>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>2515018</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>REDECILLAS PARA EL CABELLO</t>
+        </is>
+      </c>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/archivos/HISTORIAL_PROCESOS.xlsx
+++ b/archivos/HISTORIAL_PROCESOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3095"/>
+  <dimension ref="A1:E3179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66866,6 +66866,1846 @@
         </is>
       </c>
     </row>
+    <row r="3096">
+      <c r="A3096" t="n">
+        <v>2342118</v>
+      </c>
+      <c r="B3096" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3096" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3096" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3096" t="inlineStr"/>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="n">
+        <v>2342119</v>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3097" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3097" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3097" t="inlineStr"/>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="n">
+        <v>2605174</v>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3098" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3098" t="inlineStr">
+        <is>
+          <t>PANTALONES PARA NINA DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3098" t="inlineStr"/>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="n">
+        <v>2605175</v>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3099" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3099" t="inlineStr">
+        <is>
+          <t>PANTALONES PARA NINA DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3099" t="inlineStr"/>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="n">
+        <v>2605176</v>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3100" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3100" t="inlineStr">
+        <is>
+          <t>PANTALONES PARA NINA DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3100" t="inlineStr"/>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="n">
+        <v>2730467</v>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3101" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3101" t="inlineStr">
+        <is>
+          <t>PANTALONES CORTOS CENIDOS PARA MUJER DE FIBRAS SINTETICAS NO DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3101" t="inlineStr"/>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="n">
+        <v>2901120</v>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3102" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3102" t="inlineStr"/>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="n">
+        <v>2901121</v>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3103" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3103" t="inlineStr"/>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="n">
+        <v>2901122</v>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3104" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3104" t="inlineStr"/>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="n">
+        <v>2901123</v>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3105" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3105" t="inlineStr"/>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="n">
+        <v>2901124</v>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3106" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3106" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3106" t="inlineStr"/>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="n">
+        <v>2901125</v>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3107" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3107" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3107" t="inlineStr"/>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="n">
+        <v>2901126</v>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3108" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3108" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3108" t="inlineStr"/>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="n">
+        <v>2901142</v>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3109" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3109" t="inlineStr"/>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="n">
+        <v>2901145</v>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3110" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3110" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3110" t="inlineStr"/>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="n">
+        <v>2901146</v>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3111" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3111" t="inlineStr">
+        <is>
+          <t>CALZADO PARA HOMBRE O JOVEN CORTE SINTETICO SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3111" t="inlineStr"/>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="n">
+        <v>2956236</v>
+      </c>
+      <c r="B3112" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3112" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3112" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3112" t="inlineStr"/>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="n">
+        <v>2956242</v>
+      </c>
+      <c r="B3113" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3113" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3113" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3113" t="inlineStr"/>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="n">
+        <v>2956243</v>
+      </c>
+      <c r="B3114" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3114" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3114" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3114" t="inlineStr"/>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="n">
+        <v>2956244</v>
+      </c>
+      <c r="B3115" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3115" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3115" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3115" t="inlineStr"/>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="n">
+        <v>2956245</v>
+      </c>
+      <c r="B3116" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3116" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3116" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3116" t="inlineStr"/>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="n">
+        <v>2956246</v>
+      </c>
+      <c r="B3117" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3117" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3117" t="inlineStr">
+        <is>
+          <t>SUDADERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3117" t="inlineStr"/>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="n">
+        <v>4569194</v>
+      </c>
+      <c r="B3118" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3118" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3118" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3118" t="inlineStr"/>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="n">
+        <v>4569195</v>
+      </c>
+      <c r="B3119" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3119" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3119" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3119" t="inlineStr"/>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="n">
+        <v>4569196</v>
+      </c>
+      <c r="B3120" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3120" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3120" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3120" t="inlineStr"/>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="n">
+        <v>4569197</v>
+      </c>
+      <c r="B3121" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3121" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3121" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3121" t="inlineStr"/>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="n">
+        <v>4569198</v>
+      </c>
+      <c r="B3122" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3122" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3122" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3122" t="inlineStr"/>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="n">
+        <v>4744483</v>
+      </c>
+      <c r="B3123" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3123" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3123" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3123" t="inlineStr"/>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="n">
+        <v>4838669</v>
+      </c>
+      <c r="B3124" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3124" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3124" t="inlineStr">
+        <is>
+          <t>CALZADO PARA MUJER O JOVENCITA CORTE TEXTIL SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3124" t="inlineStr"/>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="n">
+        <v>4838670</v>
+      </c>
+      <c r="B3125" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3125" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3125" t="inlineStr">
+        <is>
+          <t>CALZADO PARA MUJER O JOVENCITA CORTE TEXTIL SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3125" t="inlineStr"/>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="n">
+        <v>4838671</v>
+      </c>
+      <c r="B3126" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3126" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3126" t="inlineStr">
+        <is>
+          <t>CALZADO PARA MUJER O JOVENCITA CORTE TEXTIL SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3126" t="inlineStr"/>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="n">
+        <v>4838672</v>
+      </c>
+      <c r="B3127" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C3127" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3127" t="inlineStr">
+        <is>
+          <t>CALZADO PARA MUJER O JOVENCITA CORTE TEXTIL SUELA SINTETICA</t>
+        </is>
+      </c>
+      <c r="E3127" t="inlineStr"/>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="n">
+        <v>4925306</v>
+      </c>
+      <c r="B3128" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3128" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3128" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3128" t="inlineStr"/>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="n">
+        <v>5206104</v>
+      </c>
+      <c r="B3129" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3129" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3129" t="inlineStr">
+        <is>
+          <t>BANADORES PARA NINA DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3129" t="inlineStr"/>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="n">
+        <v>5255916</v>
+      </c>
+      <c r="B3130" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3130" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3130" t="inlineStr">
+        <is>
+          <t>BANADORES PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3130" t="inlineStr"/>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="n">
+        <v>5255917</v>
+      </c>
+      <c r="B3131" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3131" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3131" t="inlineStr">
+        <is>
+          <t>BANADORES PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3131" t="inlineStr"/>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="n">
+        <v>5255918</v>
+      </c>
+      <c r="B3132" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3132" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3132" t="inlineStr">
+        <is>
+          <t>BANADORES PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3132" t="inlineStr"/>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="n">
+        <v>5255920</v>
+      </c>
+      <c r="B3133" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3133" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3133" t="inlineStr">
+        <is>
+          <t>BANADORES PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3133" t="inlineStr"/>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="n">
+        <v>5255921</v>
+      </c>
+      <c r="B3134" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3134" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3134" t="inlineStr">
+        <is>
+          <t>BANADORES PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3134" t="inlineStr"/>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="n">
+        <v>5255922</v>
+      </c>
+      <c r="B3135" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3135" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3135" t="inlineStr">
+        <is>
+          <t>BANADORES PARA MUJER DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3135" t="inlineStr"/>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="n">
+        <v>2923828</v>
+      </c>
+      <c r="B3136" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3136" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004, NOM-133/3-SCFI-1999</t>
+        </is>
+      </c>
+      <c r="D3136" t="inlineStr">
+        <is>
+          <t>MUEBLES DE METAL (CAMAS PLEGABLES)</t>
+        </is>
+      </c>
+      <c r="E3136" t="inlineStr"/>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="n">
+        <v>4767344</v>
+      </c>
+      <c r="B3137" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3137" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3137" t="inlineStr">
+        <is>
+          <t>SILLAS DE METAL</t>
+        </is>
+      </c>
+      <c r="E3137" t="inlineStr"/>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="n">
+        <v>4767347</v>
+      </c>
+      <c r="B3138" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3138" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004, NOM-133/3-SCFI-1999</t>
+        </is>
+      </c>
+      <c r="D3138" t="inlineStr">
+        <is>
+          <t>MUEBLES DE MADERA</t>
+        </is>
+      </c>
+      <c r="E3138" t="inlineStr"/>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="n">
+        <v>4899301</v>
+      </c>
+      <c r="B3139" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3139" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3139" t="inlineStr">
+        <is>
+          <t>RAQUETAS CON ACCESORIOS</t>
+        </is>
+      </c>
+      <c r="E3139" t="inlineStr"/>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="n">
+        <v>4682887</v>
+      </c>
+      <c r="B3140" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3140" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3140" t="inlineStr">
+        <is>
+          <t>CHALECOS SALVAVIDAS</t>
+        </is>
+      </c>
+      <c r="E3140" t="inlineStr"/>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="n">
+        <v>712813</v>
+      </c>
+      <c r="B3141" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3141" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007, NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3141" t="inlineStr">
+        <is>
+          <t>JUEGO DE 2 ARTICULOS PARA CULTURA FISICA</t>
+        </is>
+      </c>
+      <c r="E3141" t="inlineStr"/>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="n">
+        <v>2895786</v>
+      </c>
+      <c r="B3142" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3142" t="inlineStr">
+        <is>
+          <t>NOM-002-CONAGUA-2021, NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3142" t="inlineStr">
+        <is>
+          <t>COLCHONES INFLABLES DE PLASTICO</t>
+        </is>
+      </c>
+      <c r="E3142" t="inlineStr"/>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="n">
+        <v>2745730</v>
+      </c>
+      <c r="B3143" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3143" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3143" t="inlineStr">
+        <is>
+          <t>BALONES INFLABLES</t>
+        </is>
+      </c>
+      <c r="E3143" t="inlineStr"/>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="n">
+        <v>4232397</v>
+      </c>
+      <c r="B3144" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3144" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3144" t="inlineStr">
+        <is>
+          <t>BALONES INFLABLES</t>
+        </is>
+      </c>
+      <c r="E3144" t="inlineStr"/>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="n">
+        <v>5183785</v>
+      </c>
+      <c r="B3145" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3145" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3145" t="inlineStr">
+        <is>
+          <t>GORRAS</t>
+        </is>
+      </c>
+      <c r="E3145" t="inlineStr"/>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="n">
+        <v>2648470</v>
+      </c>
+      <c r="B3146" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3146" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3146" t="inlineStr">
+        <is>
+          <t>SOMBREROS</t>
+        </is>
+      </c>
+      <c r="E3146" t="inlineStr"/>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="n">
+        <v>4667088</v>
+      </c>
+      <c r="B3147" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3147" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3147" t="inlineStr">
+        <is>
+          <t>BALONES INFLABLES</t>
+        </is>
+      </c>
+      <c r="E3147" t="inlineStr"/>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="n">
+        <v>2630622</v>
+      </c>
+      <c r="B3148" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3148" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3148" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3148" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="n">
+        <v>2630629</v>
+      </c>
+      <c r="B3149" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3149" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3149" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3149" t="inlineStr"/>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="n">
+        <v>2308152</v>
+      </c>
+      <c r="B3150" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3150" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3150" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3150" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="n">
+        <v>2308195</v>
+      </c>
+      <c r="B3151" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3151" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3151" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3151" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="n">
+        <v>2461442</v>
+      </c>
+      <c r="B3152" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3152" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3152" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3152" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="n">
+        <v>2172064</v>
+      </c>
+      <c r="B3153" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3153" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3153" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3153" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="n">
+        <v>1862929</v>
+      </c>
+      <c r="B3154" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3154" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3154" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3154" t="inlineStr"/>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="n">
+        <v>1862927</v>
+      </c>
+      <c r="B3155" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3155" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3155" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3155" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="n">
+        <v>2461443</v>
+      </c>
+      <c r="B3156" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3156" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3156" t="inlineStr">
+        <is>
+          <t>CALCETINES DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3156" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="n">
+        <v>2308148</v>
+      </c>
+      <c r="B3157" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3157" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3157" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3157" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="n">
+        <v>2308147</v>
+      </c>
+      <c r="B3158" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3158" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3158" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3158" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="n">
+        <v>2308146</v>
+      </c>
+      <c r="B3159" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3159" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3159" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3159" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="n">
+        <v>2308218</v>
+      </c>
+      <c r="B3160" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3160" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3160" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3160" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="n">
+        <v>2415065</v>
+      </c>
+      <c r="B3161" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3161" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3161" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3161" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="n">
+        <v>2172052</v>
+      </c>
+      <c r="B3162" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3162" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3162" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3162" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="n">
+        <v>2172051</v>
+      </c>
+      <c r="B3163" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3163" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3163" t="inlineStr">
+        <is>
+          <t>JUEGO DE 3 PARES DE CALCETINES DE ALGODON DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3163" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="n">
+        <v>5085164</v>
+      </c>
+      <c r="B3164" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3164" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3164" t="inlineStr">
+        <is>
+          <t>BALONES INFLABLES</t>
+        </is>
+      </c>
+      <c r="E3164" t="inlineStr"/>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="n">
+        <v>4714062</v>
+      </c>
+      <c r="B3165" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3165" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3165" t="inlineStr">
+        <is>
+          <t>JUEGO DE PELOTAS</t>
+        </is>
+      </c>
+      <c r="E3165" t="inlineStr"/>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="n">
+        <v>4714185</v>
+      </c>
+      <c r="B3166" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3166" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3166" t="inlineStr">
+        <is>
+          <t>JUEGO DE PELOTAS</t>
+        </is>
+      </c>
+      <c r="E3166" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="n">
+        <v>4852464</v>
+      </c>
+      <c r="B3167" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3167" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007, NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3167" t="inlineStr">
+        <is>
+          <t>ARTICULOS PARA YOGA</t>
+        </is>
+      </c>
+      <c r="E3167" t="inlineStr"/>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="n">
+        <v>712811</v>
+      </c>
+      <c r="B3168" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3168" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007, NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3168" t="inlineStr">
+        <is>
+          <t>JUEGO DE ARTICULOS PARA CULTURA FISICA</t>
+        </is>
+      </c>
+      <c r="E3168" t="inlineStr"/>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="n">
+        <v>712790</v>
+      </c>
+      <c r="B3169" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3169" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007, NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3169" t="inlineStr">
+        <is>
+          <t>JUEGO DE 2 MANCUERNAS</t>
+        </is>
+      </c>
+      <c r="E3169" t="inlineStr"/>
+    </row>
+    <row r="3170">
+      <c r="A3170" t="n">
+        <v>2722539</v>
+      </c>
+      <c r="B3170" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C3170" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3170" t="inlineStr">
+        <is>
+          <t>CHALECOS SALVAVIDAS</t>
+        </is>
+      </c>
+      <c r="E3170" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="n">
+        <v>2722538</v>
+      </c>
+      <c r="B3171" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C3171" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3171" t="inlineStr">
+        <is>
+          <t>CHALECOS SALVAVIDAS</t>
+        </is>
+      </c>
+      <c r="E3171" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="n">
+        <v>2722537</v>
+      </c>
+      <c r="B3172" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C3172" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3172" t="inlineStr">
+        <is>
+          <t>CHALECOS SALVAVIDAS</t>
+        </is>
+      </c>
+      <c r="E3172" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="n">
+        <v>2722536</v>
+      </c>
+      <c r="B3173" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C3173" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D3173" t="inlineStr">
+        <is>
+          <t>CHALECOS SALVAVIDAS</t>
+        </is>
+      </c>
+      <c r="E3173" t="inlineStr">
+        <is>
+          <t>REVISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="n">
+        <v>1446242</v>
+      </c>
+      <c r="B3174" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3174" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021, NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3174" t="inlineStr">
+        <is>
+          <t>MALETAS CON LA SUPERFICIE EXTERIOR DE MATERIA TEXTIL</t>
+        </is>
+      </c>
+      <c r="E3174" t="inlineStr"/>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="n">
+        <v>5045657</v>
+      </c>
+      <c r="B3175" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3175" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021, NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D3175" t="inlineStr">
+        <is>
+          <t>MOCHILAS CON LA SUPERFICIE EXTERIOR DE MATERIA TEXTIL</t>
+        </is>
+      </c>
+      <c r="E3175" t="inlineStr"/>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="n">
+        <v>4108229</v>
+      </c>
+      <c r="B3176" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3176" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021, NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3176" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3176" t="inlineStr"/>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="n">
+        <v>4108228</v>
+      </c>
+      <c r="B3177" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3177" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021, NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3177" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3177" t="inlineStr"/>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="n">
+        <v>4108227</v>
+      </c>
+      <c r="B3178" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3178" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021, NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3178" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3178" t="inlineStr"/>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="n">
+        <v>4108226</v>
+      </c>
+      <c r="B3179" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+      <c r="C3179" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021, NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D3179" t="inlineStr">
+        <is>
+          <t>PLAYERAS PARA HOMBRE DE FIBRAS SINTETICAS DE PUNTO</t>
+        </is>
+      </c>
+      <c r="E3179" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/archivos/HISTORIAL_PROCESOS.xlsx
+++ b/archivos/HISTORIAL_PROCESOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3179"/>
+  <dimension ref="A1:E3180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68706,6 +68706,27 @@
       </c>
       <c r="E3179" t="inlineStr"/>
     </row>
+    <row r="3180">
+      <c r="A3180" t="n">
+        <v>444444</v>
+      </c>
+      <c r="B3180" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C3180" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D3180" t="inlineStr">
+        <is>
+          <t>BASTON DE SENDERISMO</t>
+        </is>
+      </c>
+      <c r="E3180" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
